--- a/ABELA, IMELDA.xlsx
+++ b/ABELA, IMELDA.xlsx
@@ -1,48 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4A347B-0C62-4BC5-9845-D917AAE5C3AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE56D11-522B-4E7F-B8AF-35BFA6EA73FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="CONVERTION" sheetId="3" r:id="rId2"/>
+    <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
+    <sheet name="2017 LEAVE BALANCE" sheetId="1" r:id="rId2"/>
+    <sheet name="CONVERTION" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="BALANCE_1" localSheetId="1">[1]!Table1[[#Headers],[BALANCE]]</definedName>
+    <definedName name="BALANCE_1" localSheetId="0">Table13[[#Headers],[BALANCE]]</definedName>
+    <definedName name="BALANCE_1" localSheetId="2">[1]!Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="146">
   <si>
     <t>PERIOD</t>
   </si>
@@ -176,9 +171,6 @@
     <t>2018</t>
   </si>
   <si>
-    <t>FL(5-0-0)</t>
-  </si>
-  <si>
     <t>2019</t>
   </si>
   <si>
@@ -243,6 +235,246 @@
   </si>
   <si>
     <t>12/1,2/2022</t>
+  </si>
+  <si>
+    <t>SP(2-0-0)</t>
+  </si>
+  <si>
+    <t>1/26,29</t>
+  </si>
+  <si>
+    <t>1/30,31</t>
+  </si>
+  <si>
+    <t>2/8-14/2018</t>
+  </si>
+  <si>
+    <t>2/23,25/2018</t>
+  </si>
+  <si>
+    <t>SL(3-0-0)</t>
+  </si>
+  <si>
+    <t>3/7,8,9</t>
+  </si>
+  <si>
+    <t>3/15,16</t>
+  </si>
+  <si>
+    <t>4/4,5,6</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>4/2,3</t>
+  </si>
+  <si>
+    <t>4/17,18,19</t>
+  </si>
+  <si>
+    <t>4/26,27</t>
+  </si>
+  <si>
+    <t>4/20,24</t>
+  </si>
+  <si>
+    <t>VL(6-0-0)</t>
+  </si>
+  <si>
+    <t>5/16-25/2018</t>
+  </si>
+  <si>
+    <t>5/7,8,9</t>
+  </si>
+  <si>
+    <t>5/10,11,15</t>
+  </si>
+  <si>
+    <t>UT(1-2-9)</t>
+  </si>
+  <si>
+    <t>UT(2-7-24)</t>
+  </si>
+  <si>
+    <t>7/16,17</t>
+  </si>
+  <si>
+    <t>UT(0-0-28)</t>
+  </si>
+  <si>
+    <t>UT(0-1-37)</t>
+  </si>
+  <si>
+    <t>9/18,20/18</t>
+  </si>
+  <si>
+    <t>UT(0-3-13)</t>
+  </si>
+  <si>
+    <t>10/9,10</t>
+  </si>
+  <si>
+    <t>10/25,26</t>
+  </si>
+  <si>
+    <t>UT(1-0-46)</t>
+  </si>
+  <si>
+    <t>11/26,27</t>
+  </si>
+  <si>
+    <t>UT(0-0-30)</t>
+  </si>
+  <si>
+    <t>12/20,28</t>
+  </si>
+  <si>
+    <t>UT(0-1-2-11)</t>
+  </si>
+  <si>
+    <t>1/21-25/2019</t>
+  </si>
+  <si>
+    <t>1/28,29,30</t>
+  </si>
+  <si>
+    <t>2/7,8,11</t>
+  </si>
+  <si>
+    <t>DOMESTIC 2/14</t>
+  </si>
+  <si>
+    <t>2/27,28</t>
+  </si>
+  <si>
+    <t>3/11-14/2019</t>
+  </si>
+  <si>
+    <t>4/4,8</t>
+  </si>
+  <si>
+    <t>5/14,15</t>
+  </si>
+  <si>
+    <t>5/21,23</t>
+  </si>
+  <si>
+    <t>6/6,7,10</t>
+  </si>
+  <si>
+    <t>VL(7-0-0)</t>
+  </si>
+  <si>
+    <t>6/20-28/2019</t>
+  </si>
+  <si>
+    <t>6/18,19</t>
+  </si>
+  <si>
+    <t>7/1-5/2019</t>
+  </si>
+  <si>
+    <t>8/28,29</t>
+  </si>
+  <si>
+    <t>9/6,9/2019</t>
+  </si>
+  <si>
+    <t>9/16,17</t>
+  </si>
+  <si>
+    <t>9/19,26</t>
+  </si>
+  <si>
+    <t>11/25,26</t>
+  </si>
+  <si>
+    <t>12/28,29</t>
+  </si>
+  <si>
+    <t>12/26,27</t>
+  </si>
+  <si>
+    <t>1/22,23,24</t>
+  </si>
+  <si>
+    <t>3/2,9</t>
+  </si>
+  <si>
+    <t>SP(3-0-0)</t>
+  </si>
+  <si>
+    <t>1/15,16,17</t>
+  </si>
+  <si>
+    <t>CALAMITY LEAVE</t>
+  </si>
+  <si>
+    <t>2/3-7/2020</t>
+  </si>
+  <si>
+    <t>2/17,27</t>
+  </si>
+  <si>
+    <t>2/10-14/2020</t>
+  </si>
+  <si>
+    <t>8/19,27</t>
+  </si>
+  <si>
+    <t>12/15,16</t>
+  </si>
+  <si>
+    <t>12/2,3,7</t>
+  </si>
+  <si>
+    <t>1/8,12</t>
+  </si>
+  <si>
+    <t>2/2,5</t>
+  </si>
+  <si>
+    <t>2/9,10,11</t>
+  </si>
+  <si>
+    <t>7/5,6</t>
+  </si>
+  <si>
+    <t>7/8,9</t>
+  </si>
+  <si>
+    <t>7/19,22</t>
+  </si>
+  <si>
+    <t>SL(5-0-0)</t>
+  </si>
+  <si>
+    <t>10/25-29/2021</t>
+  </si>
+  <si>
+    <t>FILIAL 11/2,3,4</t>
+  </si>
+  <si>
+    <t>1/7,14</t>
+  </si>
+  <si>
+    <t>1/20,21</t>
+  </si>
+  <si>
+    <t>2/10,11</t>
+  </si>
+  <si>
+    <t>2/21,22</t>
+  </si>
+  <si>
+    <t>3/8,14,15</t>
+  </si>
+  <si>
+    <t>4/8,12</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
 </sst>
 </file>
@@ -478,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -620,8 +852,8 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -632,17 +864,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -657,7 +892,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -900,6 +1135,248 @@
         <bottom/>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.000"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -931,7 +1408,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{90877735-D0DE-40F6-959A-34D518730DF6}" name="Table13" displayName="Table13" ref="A8:K116" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{1739DEEA-C169-43F8-AA45-5E041A82AEA3}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{578B1B42-68F5-44F3-9438-EF128935D55B}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{5A5213A9-3395-4D3C-A1D4-3A604EB18D7B}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{F38F6A1B-F398-4BCA-A282-67E03833C9AE}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{AC02E92E-D1ED-420C-B6B5-D68A89F0849F}" name="BALANCE" dataDxfId="21">
+      <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{80E7EE83-8084-4FC2-B6F5-E1873C2FA0E4}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{23FC7F04-D4B6-4501-B106-B9C4F4F1D1F6}" name="EARNED " dataDxfId="19">
+      <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{5D132270-05C7-4E6A-B0BF-618203B8C1E5}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{9913942C-6FFE-4CB9-A316-3E32CFB24AF1}" name="BALANCE " dataDxfId="17">
+      <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{28752C55-2372-4AD6-B304-11218A8C7271}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{2AD24781-BDA4-4FB7-9609-C9E75F2234B8}" name="REMARKS" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{504A1905-F514-4f6f-8877-14C23A59335A}">
+      <x14:table altText="BALANCE_2"/>
+    </ext>
+  </extLst>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K204" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -1256,16 +1763,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB22DD1-8B3C-45AA-BA3E-079142AD94FB}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K116"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A82" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="F95" sqref="F95"/>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A69"/>
+      <selection activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1288,15 +1795,15 @@
         <v>9</v>
       </c>
       <c r="B2" s="50" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
@@ -1313,7 +1820,7 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F3" s="55">
         <v>43101</v>
       </c>
       <c r="G3" s="51"/>
@@ -1321,8 +1828,8 @@
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="53"/>
-      <c r="K3" s="54"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
@@ -1368,18 +1875,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49" t="s">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -1425,18 +1932,18 @@
       <c r="C9" s="13"/>
       <c r="D9" s="11"/>
       <c r="E9" s="13">
-        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>30</v>
+        <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
+        <v>34.25</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="13">
-        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>55</v>
+        <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
+        <v>76.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -1453,7 +1960,7 @@
       </c>
       <c r="F10" s="20"/>
       <c r="G10" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H10" s="40"/>
@@ -1475,7 +1982,7 @@
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
       <c r="G11" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H11" s="40"/>
@@ -1487,21 +1994,27 @@
       <c r="A12" s="41">
         <v>43132</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C12" s="13">
         <v>1.25</v>
       </c>
-      <c r="D12" s="40"/>
+      <c r="D12" s="40">
+        <v>5</v>
+      </c>
       <c r="E12" s="9"/>
       <c r="F12" s="20"/>
       <c r="G12" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H12" s="40"/>
       <c r="I12" s="9"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="20"/>
+      <c r="K12" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="41">
@@ -1515,7 +2028,7 @@
       <c r="E13" s="9"/>
       <c r="F13" s="20"/>
       <c r="G13" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H13" s="40"/>
@@ -1535,7 +2048,7 @@
       <c r="E14" s="9"/>
       <c r="F14" s="20"/>
       <c r="G14" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H14" s="40"/>
@@ -1555,7 +2068,7 @@
       <c r="E15" s="9"/>
       <c r="F15" s="20"/>
       <c r="G15" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H15" s="40"/>
@@ -1575,7 +2088,7 @@
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
       <c r="G16" s="43">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H16" s="44"/>
@@ -1595,7 +2108,7 @@
       <c r="E17" s="9"/>
       <c r="F17" s="20"/>
       <c r="G17" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H17" s="40"/>
@@ -1615,7 +2128,7 @@
       <c r="E18" s="9"/>
       <c r="F18" s="20"/>
       <c r="G18" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H18" s="40"/>
@@ -1635,7 +2148,7 @@
       <c r="E19" s="9"/>
       <c r="F19" s="20"/>
       <c r="G19" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H19" s="40"/>
@@ -1655,7 +2168,7 @@
       <c r="E20" s="9"/>
       <c r="F20" s="20"/>
       <c r="G20" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H20" s="40"/>
@@ -1675,7 +2188,7 @@
       <c r="E21" s="9"/>
       <c r="F21" s="20"/>
       <c r="G21" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H21" s="40"/>
@@ -1687,19 +2200,15 @@
       <c r="A22" s="41">
         <v>43435</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>44</v>
-      </c>
+      <c r="B22" s="20"/>
       <c r="C22" s="13">
         <v>1.25</v>
       </c>
-      <c r="D22" s="40">
-        <v>5</v>
-      </c>
+      <c r="D22" s="40"/>
       <c r="E22" s="9"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H22" s="40"/>
@@ -1709,7 +2218,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -1717,7 +2226,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="20"/>
       <c r="G23" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H23" s="40"/>
@@ -1729,21 +2238,27 @@
       <c r="A24" s="41">
         <v>43466</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C24" s="13">
         <v>1.25</v>
       </c>
-      <c r="D24" s="40"/>
+      <c r="D24" s="40">
+        <v>5</v>
+      </c>
       <c r="E24" s="9"/>
       <c r="F24" s="20"/>
       <c r="G24" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H24" s="40"/>
       <c r="I24" s="9"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="20"/>
+      <c r="K24" s="20" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="41">
@@ -1757,7 +2272,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
       <c r="G25" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H25" s="40"/>
@@ -1777,7 +2292,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
       <c r="G26" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H26" s="40"/>
@@ -1797,7 +2312,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="20"/>
       <c r="G27" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H27" s="40"/>
@@ -1817,7 +2332,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="20"/>
       <c r="G28" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H28" s="40"/>
@@ -1837,7 +2352,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="20"/>
       <c r="G29" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H29" s="40"/>
@@ -1857,7 +2372,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="20"/>
       <c r="G30" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H30" s="40"/>
@@ -1877,7 +2392,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="20"/>
       <c r="G31" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H31" s="40"/>
@@ -1897,7 +2412,7 @@
       <c r="E32" s="9"/>
       <c r="F32" s="20"/>
       <c r="G32" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H32" s="40"/>
@@ -1917,7 +2432,7 @@
       <c r="E33" s="9"/>
       <c r="F33" s="20"/>
       <c r="G33" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H33" s="40"/>
@@ -1937,7 +2452,7 @@
       <c r="E34" s="9"/>
       <c r="F34" s="20"/>
       <c r="G34" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H34" s="40"/>
@@ -1949,19 +2464,15 @@
       <c r="A35" s="41">
         <v>43800</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>44</v>
-      </c>
+      <c r="B35" s="20"/>
       <c r="C35" s="13">
         <v>1.25</v>
       </c>
-      <c r="D35" s="40">
-        <v>5</v>
-      </c>
+      <c r="D35" s="40"/>
       <c r="E35" s="9"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H35" s="40"/>
@@ -1971,7 +2482,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -1979,7 +2490,7 @@
       <c r="E36" s="9"/>
       <c r="F36" s="20"/>
       <c r="G36" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H36" s="40"/>
@@ -1991,15 +2502,19 @@
       <c r="A37" s="41">
         <v>43831</v>
       </c>
-      <c r="B37" s="20"/>
+      <c r="B37" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C37" s="13">
         <v>1.25</v>
       </c>
-      <c r="D37" s="40"/>
+      <c r="D37" s="40">
+        <v>5</v>
+      </c>
       <c r="E37" s="9"/>
       <c r="F37" s="20"/>
       <c r="G37" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H37" s="40"/>
@@ -2019,7 +2534,7 @@
       <c r="E38" s="9"/>
       <c r="F38" s="20"/>
       <c r="G38" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H38" s="40"/>
@@ -2039,7 +2554,7 @@
       <c r="E39" s="9"/>
       <c r="F39" s="20"/>
       <c r="G39" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H39" s="40"/>
@@ -2059,7 +2574,7 @@
       <c r="E40" s="9"/>
       <c r="F40" s="20"/>
       <c r="G40" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H40" s="40"/>
@@ -2079,7 +2594,7 @@
       <c r="E41" s="9"/>
       <c r="F41" s="20"/>
       <c r="G41" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H41" s="40"/>
@@ -2099,7 +2614,7 @@
       <c r="E42" s="9"/>
       <c r="F42" s="20"/>
       <c r="G42" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H42" s="40"/>
@@ -2119,7 +2634,7 @@
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
       <c r="G43" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H43" s="40"/>
@@ -2139,7 +2654,7 @@
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
       <c r="G44" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H44" s="40"/>
@@ -2159,7 +2674,7 @@
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
       <c r="G45" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H45" s="40"/>
@@ -2179,7 +2694,7 @@
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
       <c r="G46" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H46" s="40"/>
@@ -2199,7 +2714,7 @@
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
       <c r="G47" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H47" s="40"/>
@@ -2211,19 +2726,15 @@
       <c r="A48" s="41">
         <v>44166</v>
       </c>
-      <c r="B48" s="20" t="s">
-        <v>44</v>
-      </c>
+      <c r="B48" s="20"/>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
-      <c r="D48" s="40">
-        <v>5</v>
-      </c>
+      <c r="D48" s="40"/>
       <c r="E48" s="9"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H48" s="40"/>
@@ -2233,7 +2744,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -2241,7 +2752,7 @@
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
       <c r="G49" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H49" s="40"/>
@@ -2261,7 +2772,7 @@
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
       <c r="G50" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H50" s="40"/>
@@ -2274,7 +2785,7 @@
         <v>44228</v>
       </c>
       <c r="B51" s="20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="40">
@@ -2283,14 +2794,14 @@
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
       <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H51" s="40"/>
       <c r="I51" s="9"/>
       <c r="J51" s="11"/>
       <c r="K51" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
@@ -2303,7 +2814,7 @@
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
       <c r="G52" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H52" s="40"/>
@@ -2323,7 +2834,7 @@
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
       <c r="G53" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H53" s="40"/>
@@ -2343,7 +2854,7 @@
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
       <c r="G54" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H54" s="40"/>
@@ -2363,7 +2874,7 @@
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
       <c r="G55" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H55" s="40"/>
@@ -2383,7 +2894,7 @@
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
       <c r="G56" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H56" s="40"/>
@@ -2403,7 +2914,7 @@
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
       <c r="G57" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H57" s="40"/>
@@ -2423,7 +2934,7 @@
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
       <c r="G58" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H58" s="40"/>
@@ -2435,18 +2946,16 @@
       <c r="A59" s="41">
         <v>44440</v>
       </c>
-      <c r="B59" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C59" s="13"/>
-      <c r="D59" s="40">
-        <v>3</v>
-      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D59" s="40"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G59" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H59" s="40"/>
       <c r="I59" s="9"/>
@@ -2454,49 +2963,55 @@
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="41"/>
-      <c r="B60" s="20"/>
+      <c r="A60" s="41">
+        <v>44470</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C60" s="13">
         <v>1.25</v>
       </c>
-      <c r="D60" s="40"/>
+      <c r="D60" s="40">
+        <v>17</v>
+      </c>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
       <c r="G60" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H60" s="40"/>
       <c r="I60" s="9"/>
       <c r="J60" s="11"/>
-      <c r="K60" s="20"/>
+      <c r="K60" s="20" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="41">
-        <v>44470</v>
-      </c>
-      <c r="B61" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C61" s="13"/>
-      <c r="D61" s="40">
-        <v>17</v>
-      </c>
+        <v>44501</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D61" s="40"/>
       <c r="E61" s="9"/>
       <c r="F61" s="20"/>
-      <c r="G61" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G61" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H61" s="40"/>
       <c r="I61" s="9"/>
       <c r="J61" s="11"/>
-      <c r="K61" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="41"/>
+      <c r="A62" s="41">
+        <v>44531</v>
+      </c>
       <c r="B62" s="20"/>
       <c r="C62" s="13">
         <v>1.25</v>
@@ -2505,7 +3020,7 @@
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
       <c r="G62" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H62" s="40"/>
@@ -2514,19 +3029,17 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="41">
-        <v>44501</v>
+      <c r="A63" s="47" t="s">
+        <v>52</v>
       </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C63" s="13"/>
       <c r="D63" s="40"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H63" s="40"/>
       <c r="I63" s="9"/>
@@ -2535,7 +3048,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="41">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B64" s="20"/>
       <c r="C64" s="13">
@@ -2545,7 +3058,7 @@
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
       <c r="G64" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H64" s="40"/>
@@ -2554,17 +3067,19 @@
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="47" t="s">
-        <v>53</v>
+      <c r="A65" s="41">
+        <v>44593</v>
       </c>
       <c r="B65" s="20"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D65" s="40"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G65" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H65" s="40"/>
       <c r="I65" s="9"/>
@@ -2573,7 +3088,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="41">
-        <v>44562</v>
+        <v>44621</v>
       </c>
       <c r="B66" s="20"/>
       <c r="C66" s="13">
@@ -2583,7 +3098,7 @@
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
       <c r="G66" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H66" s="40"/>
@@ -2593,7 +3108,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="41">
-        <v>44593</v>
+        <v>44652</v>
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="13">
@@ -2603,7 +3118,7 @@
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
       <c r="G67" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H67" s="40"/>
@@ -2613,7 +3128,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="41">
-        <v>44621</v>
+        <v>44682</v>
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="13">
@@ -2623,7 +3138,7 @@
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
       <c r="G68" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H68" s="40"/>
@@ -2633,7 +3148,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="41">
-        <v>44652</v>
+        <v>44713</v>
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="13">
@@ -2643,7 +3158,7 @@
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
       <c r="G69" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H69" s="40"/>
@@ -2653,7 +3168,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="41">
-        <v>44682</v>
+        <v>44743</v>
       </c>
       <c r="B70" s="20"/>
       <c r="C70" s="13">
@@ -2663,7 +3178,7 @@
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
       <c r="G70" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H70" s="40"/>
@@ -2673,113 +3188,121 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="41">
-        <v>44713</v>
-      </c>
-      <c r="B71" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="C71" s="13"/>
+        <v>44774</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D71" s="40"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H71" s="40"/>
       <c r="I71" s="9"/>
       <c r="J71" s="11"/>
-      <c r="K71" s="48" t="s">
-        <v>55</v>
-      </c>
+      <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="41"/>
-      <c r="B72" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="13"/>
+      <c r="A72" s="41">
+        <v>44805</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D72" s="40"/>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H72" s="40">
-        <v>2</v>
-      </c>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H72" s="40"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20" t="s">
-        <v>57</v>
-      </c>
+      <c r="K72" s="20"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A73" s="41"/>
+      <c r="A73" s="41">
+        <v>44835</v>
+      </c>
       <c r="B73" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="40"/>
+        <v>62</v>
+      </c>
+      <c r="C73" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D73" s="40">
+        <v>1</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
-      <c r="G73" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H73" s="40">
-        <v>1</v>
-      </c>
+      <c r="G73" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H73" s="40"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
       <c r="K73" s="48">
-        <v>44753</v>
+        <v>44855</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="41"/>
+      <c r="A74" s="41">
+        <v>44866</v>
+      </c>
       <c r="B74" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="40"/>
+        <v>49</v>
+      </c>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D74" s="40">
+        <v>3</v>
+      </c>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H74" s="40">
-        <v>1</v>
-      </c>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H74" s="40"/>
       <c r="I74" s="9"/>
       <c r="J74" s="11"/>
-      <c r="K74" s="48">
-        <v>44764</v>
+      <c r="K74" s="20" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="41"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D75" s="40"/>
+      <c r="B75" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="40">
+        <v>1</v>
+      </c>
       <c r="E75" s="9"/>
       <c r="F75" s="20"/>
-      <c r="G75" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H75" s="40"/>
       <c r="I75" s="9"/>
       <c r="J75" s="11"/>
-      <c r="K75" s="20"/>
+      <c r="K75" s="48">
+        <v>44894</v>
+      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="41">
-        <v>44743</v>
+        <v>44896</v>
       </c>
       <c r="B76" s="20"/>
       <c r="C76" s="13">
@@ -2789,7 +3312,7 @@
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
       <c r="G76" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
       <c r="H76" s="40"/>
@@ -2798,19 +3321,17 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="41">
-        <v>44774</v>
+      <c r="A77" s="47" t="s">
+        <v>145</v>
       </c>
       <c r="B77" s="20"/>
-      <c r="C77" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C77" s="13"/>
       <c r="D77" s="40"/>
       <c r="E77" s="9"/>
       <c r="F77" s="20"/>
-      <c r="G77" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H77" s="40"/>
       <c r="I77" s="9"/>
@@ -2818,107 +3339,83 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="41"/>
-      <c r="B78" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C78" s="13"/>
+      <c r="A78" s="41">
+        <v>44927</v>
+      </c>
+      <c r="B78" s="20"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="40"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H78" s="40">
-        <v>2</v>
-      </c>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H78" s="40"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
-      <c r="K78" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="41"/>
-      <c r="B79" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="40"/>
       <c r="E79" s="9"/>
       <c r="F79" s="20"/>
       <c r="G79" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H79" s="40">
-        <v>2</v>
-      </c>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H79" s="40"/>
       <c r="I79" s="9"/>
       <c r="J79" s="11"/>
-      <c r="K79" s="20" t="s">
-        <v>60</v>
-      </c>
+      <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="41">
-        <v>44805</v>
-      </c>
-      <c r="B80" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="A80" s="41"/>
+      <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="40"/>
       <c r="E80" s="9"/>
       <c r="F80" s="20"/>
       <c r="G80" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H80" s="40">
-        <v>1</v>
-      </c>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H80" s="40"/>
       <c r="I80" s="9"/>
       <c r="J80" s="11"/>
-      <c r="K80" s="48">
-        <v>44811</v>
-      </c>
+      <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="41"/>
-      <c r="B81" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="40"/>
       <c r="E81" s="9"/>
       <c r="F81" s="20"/>
       <c r="G81" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H81" s="40">
-        <v>1</v>
-      </c>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H81" s="40"/>
       <c r="I81" s="9"/>
       <c r="J81" s="11"/>
-      <c r="K81" s="48">
-        <v>44805</v>
-      </c>
+      <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="41"/>
       <c r="B82" s="20"/>
-      <c r="C82" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C82" s="13"/>
       <c r="D82" s="40"/>
       <c r="E82" s="9"/>
       <c r="F82" s="20"/>
-      <c r="G82" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G82" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H82" s="40"/>
       <c r="I82" s="9"/>
@@ -2926,276 +3423,196 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="41">
-        <v>44835</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C83" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A83" s="41"/>
+      <c r="B83" s="20"/>
+      <c r="C83" s="13"/>
       <c r="D83" s="40"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H83" s="40">
-        <v>2</v>
-      </c>
+      <c r="G83" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H83" s="40"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="41"/>
-      <c r="B84" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="40"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
       <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H84" s="40">
-        <v>1</v>
-      </c>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H84" s="40"/>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="48">
-        <v>44841</v>
-      </c>
+      <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="41"/>
-      <c r="B85" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="40"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
       <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H85" s="40"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="48">
-        <v>44845</v>
-      </c>
+      <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="41"/>
-      <c r="B86" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="40"/>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
       <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H86" s="40">
-        <v>1</v>
-      </c>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H86" s="40"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="48">
-        <v>44854</v>
-      </c>
+      <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="41"/>
-      <c r="B87" s="20" t="s">
-        <v>63</v>
-      </c>
+      <c r="B87" s="20"/>
       <c r="C87" s="13"/>
-      <c r="D87" s="40">
-        <v>1</v>
-      </c>
+      <c r="D87" s="40"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H87" s="40"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="48">
-        <v>44855</v>
-      </c>
+      <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="41"/>
-      <c r="B88" s="20" t="s">
-        <v>56</v>
-      </c>
+      <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="40"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
       <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H88" s="40">
-        <v>2</v>
-      </c>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H88" s="40"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20" t="s">
-        <v>64</v>
-      </c>
+      <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="41">
-        <v>44866</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C89" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D89" s="40">
-        <v>3</v>
-      </c>
+      <c r="A89" s="41"/>
+      <c r="B89" s="20"/>
+      <c r="C89" s="13"/>
+      <c r="D89" s="40"/>
       <c r="E89" s="9"/>
       <c r="F89" s="20"/>
-      <c r="G89" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H89" s="40"/>
       <c r="I89" s="9"/>
       <c r="J89" s="11"/>
-      <c r="K89" s="20" t="s">
-        <v>65</v>
-      </c>
+      <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="41"/>
-      <c r="B90" s="20" t="s">
-        <v>54</v>
-      </c>
+      <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="40"/>
       <c r="E90" s="9"/>
       <c r="F90" s="20"/>
       <c r="G90" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H90" s="40"/>
       <c r="I90" s="9"/>
       <c r="J90" s="11"/>
-      <c r="K90" s="48">
-        <v>44893</v>
-      </c>
+      <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="41"/>
-      <c r="B91" s="20" t="s">
-        <v>63</v>
-      </c>
+      <c r="B91" s="20"/>
       <c r="C91" s="13"/>
-      <c r="D91" s="40">
-        <v>1</v>
-      </c>
+      <c r="D91" s="40"/>
       <c r="E91" s="9"/>
       <c r="F91" s="20"/>
       <c r="G91" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H91" s="40"/>
       <c r="I91" s="9"/>
       <c r="J91" s="11"/>
-      <c r="K91" s="48">
-        <v>44894</v>
-      </c>
+      <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="41"/>
-      <c r="B92" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="40"/>
       <c r="E92" s="9"/>
       <c r="F92" s="20"/>
       <c r="G92" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H92" s="40">
-        <v>1</v>
-      </c>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H92" s="40"/>
       <c r="I92" s="9"/>
       <c r="J92" s="11"/>
-      <c r="K92" s="48">
-        <v>44876</v>
-      </c>
+      <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="41"/>
-      <c r="B93" s="20" t="s">
-        <v>58</v>
-      </c>
+      <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="40"/>
       <c r="E93" s="9"/>
       <c r="F93" s="20"/>
       <c r="G93" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H93" s="40">
-        <v>1</v>
-      </c>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H93" s="40"/>
       <c r="I93" s="9"/>
       <c r="J93" s="11"/>
-      <c r="K93" s="48">
-        <v>44887</v>
-      </c>
+      <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="41">
-        <v>44896</v>
-      </c>
-      <c r="B94" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C94" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A94" s="41"/>
+      <c r="B94" s="20"/>
+      <c r="C94" s="13"/>
       <c r="D94" s="40"/>
       <c r="E94" s="9"/>
       <c r="F94" s="20"/>
-      <c r="G94" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H94" s="40">
-        <v>2</v>
-      </c>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="40"/>
       <c r="I94" s="9"/>
       <c r="J94" s="11"/>
-      <c r="K94" s="20" t="s">
-        <v>66</v>
-      </c>
+      <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="41"/>
@@ -3205,7 +3622,7 @@
       <c r="E95" s="9"/>
       <c r="F95" s="20"/>
       <c r="G95" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H95" s="40"/>
@@ -3221,7 +3638,7 @@
       <c r="E96" s="9"/>
       <c r="F96" s="20"/>
       <c r="G96" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H96" s="40"/>
@@ -3237,7 +3654,7 @@
       <c r="E97" s="9"/>
       <c r="F97" s="20"/>
       <c r="G97" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H97" s="40"/>
@@ -3253,7 +3670,7 @@
       <c r="E98" s="9"/>
       <c r="F98" s="20"/>
       <c r="G98" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H98" s="40"/>
@@ -3269,7 +3686,7 @@
       <c r="E99" s="9"/>
       <c r="F99" s="20"/>
       <c r="G99" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H99" s="40"/>
@@ -3285,7 +3702,7 @@
       <c r="E100" s="9"/>
       <c r="F100" s="20"/>
       <c r="G100" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H100" s="40"/>
@@ -3301,7 +3718,7 @@
       <c r="E101" s="9"/>
       <c r="F101" s="20"/>
       <c r="G101" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H101" s="40"/>
@@ -3317,7 +3734,7 @@
       <c r="E102" s="9"/>
       <c r="F102" s="20"/>
       <c r="G102" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H102" s="40"/>
@@ -3333,7 +3750,7 @@
       <c r="E103" s="9"/>
       <c r="F103" s="20"/>
       <c r="G103" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H103" s="40"/>
@@ -3349,7 +3766,7 @@
       <c r="E104" s="9"/>
       <c r="F104" s="20"/>
       <c r="G104" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H104" s="40"/>
@@ -3365,7 +3782,7 @@
       <c r="E105" s="9"/>
       <c r="F105" s="20"/>
       <c r="G105" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H105" s="40"/>
@@ -3381,7 +3798,7 @@
       <c r="E106" s="9"/>
       <c r="F106" s="20"/>
       <c r="G106" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H106" s="40"/>
@@ -3397,7 +3814,7 @@
       <c r="E107" s="9"/>
       <c r="F107" s="20"/>
       <c r="G107" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H107" s="40"/>
@@ -3413,7 +3830,7 @@
       <c r="E108" s="9"/>
       <c r="F108" s="20"/>
       <c r="G108" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H108" s="40"/>
@@ -3429,7 +3846,7 @@
       <c r="E109" s="9"/>
       <c r="F109" s="20"/>
       <c r="G109" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H109" s="40"/>
@@ -3445,7 +3862,7 @@
       <c r="E110" s="9"/>
       <c r="F110" s="20"/>
       <c r="G110" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H110" s="40"/>
@@ -3461,7 +3878,7 @@
       <c r="E111" s="9"/>
       <c r="F111" s="20"/>
       <c r="G111" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H111" s="40"/>
@@ -3477,7 +3894,7 @@
       <c r="E112" s="9"/>
       <c r="F112" s="20"/>
       <c r="G112" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H112" s="40"/>
@@ -3493,7 +3910,7 @@
       <c r="E113" s="9"/>
       <c r="F113" s="20"/>
       <c r="G113" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H113" s="40"/>
@@ -3509,7 +3926,7 @@
       <c r="E114" s="9"/>
       <c r="F114" s="20"/>
       <c r="G114" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H114" s="40"/>
@@ -3525,7 +3942,7 @@
       <c r="E115" s="9"/>
       <c r="F115" s="20"/>
       <c r="G115" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H115" s="40"/>
@@ -3534,7 +3951,2573 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="41"/>
+      <c r="A116" s="42"/>
+      <c r="B116" s="15"/>
+      <c r="C116" s="43"/>
+      <c r="D116" s="44"/>
+      <c r="E116" s="9"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="43" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H116" s="44"/>
+      <c r="I116" s="9"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
+  </mergeCells>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{8A45E9C9-D269-4FD8-803C-68703EA970DF}">
+      <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{827C92FE-1D98-4D77-9ABF-8B423C9ACFB5}">
+      <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
+CITY OF TAGAYTAY
+EMPLOYEE'S LEAVE CARD</oddHeader>
+    <oddFooter>&amp;L
+PREPARED BY: ___________________
+DATE: &amp;D, &amp;T&amp;C
+CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
+                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A2:K204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A124" activePane="bottomLeft"/>
+      <selection activeCell="I9" sqref="H9:I9"/>
+      <selection pane="bottomLeft" activeCell="E126" sqref="E126"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="55">
+        <v>43101</v>
+      </c>
+      <c r="G3" s="51"/>
+      <c r="H3" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="50"/>
+      <c r="D4" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="52"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="16"/>
+      <c r="H5" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="27"/>
+      <c r="K5" s="4"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="17"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="19"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="53" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="13">
+        <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
+        <v>1.730000000000004</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="13">
+        <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
+        <v>19.75</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="20"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H10" s="40"/>
+      <c r="I10" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="41">
+        <v>43101</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="13"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H11" s="40">
+        <v>2</v>
+      </c>
+      <c r="I11" s="9"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="20"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="41"/>
+      <c r="B12" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="13"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H12" s="40">
+        <v>1</v>
+      </c>
+      <c r="I12" s="9"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="48">
+        <v>43103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="41"/>
+      <c r="B13" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="13"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H13" s="40"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="41"/>
+      <c r="B14" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="13"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H14" s="40">
+        <v>2</v>
+      </c>
+      <c r="I14" s="9"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="41">
+        <v>43132</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H15" s="40"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="48">
+        <v>43138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="41"/>
+      <c r="B16" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="13"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H16" s="40">
+        <v>1</v>
+      </c>
+      <c r="I16" s="9"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="48">
+        <v>43133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="41"/>
+      <c r="B17" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H17" s="40">
+        <v>1</v>
+      </c>
+      <c r="I17" s="9"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="48">
+        <v>43117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="41"/>
+      <c r="B18" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H18" s="40">
+        <v>1</v>
+      </c>
+      <c r="I18" s="9"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="48"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="41"/>
+      <c r="B19" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H19" s="40">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="48">
+        <v>43146</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="41"/>
+      <c r="B20" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" s="13"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H20" s="40">
+        <v>2</v>
+      </c>
+      <c r="I20" s="9"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="48" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="41"/>
+      <c r="B21" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="20"/>
+      <c r="G21" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H21" s="40">
+        <v>1</v>
+      </c>
+      <c r="I21" s="9"/>
+      <c r="J21" s="11"/>
+      <c r="K21" s="48">
+        <v>43159</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="41">
+        <v>43160</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H22" s="40">
+        <v>2</v>
+      </c>
+      <c r="I22" s="9"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="41"/>
+      <c r="B23" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H23" s="40">
+        <v>3</v>
+      </c>
+      <c r="I23" s="9"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="41"/>
+      <c r="B24" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H24" s="40">
+        <v>2</v>
+      </c>
+      <c r="I24" s="9"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="41">
+        <v>43191</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="40">
+        <v>3</v>
+      </c>
+      <c r="E25" s="9"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="41"/>
+      <c r="B26" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="13"/>
+      <c r="D26" s="40"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="20"/>
+      <c r="G26" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H26" s="40">
+        <v>1</v>
+      </c>
+      <c r="I26" s="9"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="48">
+        <v>43203</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="41"/>
+      <c r="B27" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="13"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H27" s="40">
+        <v>2</v>
+      </c>
+      <c r="I27" s="9"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="41"/>
+      <c r="B28" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H28" s="40">
+        <v>3</v>
+      </c>
+      <c r="I28" s="9"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="41"/>
+      <c r="B29" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="40">
+        <v>2</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H29" s="40"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="41"/>
+      <c r="B30" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C30" s="13"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H30" s="40">
+        <v>2</v>
+      </c>
+      <c r="I30" s="9"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="20" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="41">
+        <v>43221</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="13"/>
+      <c r="D31" s="40">
+        <v>6</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="20"/>
+      <c r="G31" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H31" s="40"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="41"/>
+      <c r="B32" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="13"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H32" s="44">
+        <v>3</v>
+      </c>
+      <c r="I32" s="9"/>
+      <c r="J32" s="12"/>
+      <c r="K32" s="15" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="41"/>
+      <c r="B33" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="13"/>
+      <c r="D33" s="44"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H33" s="44">
+        <v>3</v>
+      </c>
+      <c r="I33" s="9"/>
+      <c r="J33" s="12"/>
+      <c r="K33" s="15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="41"/>
+      <c r="B34" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="44">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="E34" s="9"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H34" s="44"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="15"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="41">
+        <v>43252</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="13"/>
+      <c r="D35" s="44"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H35" s="44">
+        <v>1</v>
+      </c>
+      <c r="I35" s="9"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="49">
+        <v>43258</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="41"/>
+      <c r="B36" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C36" s="13"/>
+      <c r="D36" s="44"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H36" s="44">
+        <v>1</v>
+      </c>
+      <c r="I36" s="9"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="49">
+        <v>43270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="41"/>
+      <c r="B37" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C37" s="13"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H37" s="44">
+        <v>1</v>
+      </c>
+      <c r="I37" s="9"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="49">
+        <v>43276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="41"/>
+      <c r="B38" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="13"/>
+      <c r="D38" s="44">
+        <v>2.9249999999999998</v>
+      </c>
+      <c r="E38" s="9"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H38" s="44"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="49"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="41">
+        <v>43282</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="13"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H39" s="40">
+        <v>2</v>
+      </c>
+      <c r="I39" s="9"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="41"/>
+      <c r="B40" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C40" s="13"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H40" s="40">
+        <v>1</v>
+      </c>
+      <c r="I40" s="9"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="20"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="41"/>
+      <c r="B41" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C41" s="13"/>
+      <c r="D41" s="40">
+        <v>0.12100000000000001</v>
+      </c>
+      <c r="E41" s="9"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H41" s="40"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="20"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="41">
+        <v>43313</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="13"/>
+      <c r="D42" s="40">
+        <v>1</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H42" s="40"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="48">
+        <v>43318</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="41"/>
+      <c r="B43" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="13"/>
+      <c r="D43" s="40"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H43" s="40">
+        <v>1</v>
+      </c>
+      <c r="I43" s="9"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="48">
+        <v>43325</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="41"/>
+      <c r="B44" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="13"/>
+      <c r="D44" s="40"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H44" s="40">
+        <v>1</v>
+      </c>
+      <c r="I44" s="9"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="48">
+        <v>43328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="41"/>
+      <c r="B45" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C45" s="13"/>
+      <c r="D45" s="40">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="E45" s="9"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H45" s="40"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="11"/>
+      <c r="K45" s="48"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="41">
+        <v>43344</v>
+      </c>
+      <c r="B46" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C46" s="13"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="9"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H46" s="40">
+        <v>1</v>
+      </c>
+      <c r="I46" s="9"/>
+      <c r="J46" s="11"/>
+      <c r="K46" s="48">
+        <v>43360</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="41"/>
+      <c r="B47" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C47" s="13"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="9"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H47" s="40">
+        <v>2</v>
+      </c>
+      <c r="I47" s="9"/>
+      <c r="J47" s="11"/>
+      <c r="K47" s="48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="41"/>
+      <c r="B48" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" s="13"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="9"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H48" s="40"/>
+      <c r="I48" s="9"/>
+      <c r="J48" s="11"/>
+      <c r="K48" s="48"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="41">
+        <v>43374</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C49" s="13"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="9"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H49" s="40">
+        <v>2</v>
+      </c>
+      <c r="I49" s="9"/>
+      <c r="J49" s="11"/>
+      <c r="K49" s="20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="41"/>
+      <c r="B50" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="13"/>
+      <c r="D50" s="40">
+        <v>2</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H50" s="40"/>
+      <c r="I50" s="9"/>
+      <c r="J50" s="11"/>
+      <c r="K50" s="20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="41"/>
+      <c r="B51" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="13"/>
+      <c r="D51" s="40">
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="E51" s="9"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H51" s="40"/>
+      <c r="I51" s="9"/>
+      <c r="J51" s="11"/>
+      <c r="K51" s="20"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="41">
+        <v>43405</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C52" s="13"/>
+      <c r="D52" s="40"/>
+      <c r="E52" s="9"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H52" s="40">
+        <v>1</v>
+      </c>
+      <c r="I52" s="9"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="48">
+        <v>43425</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="41"/>
+      <c r="B53" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="13"/>
+      <c r="D53" s="40"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H53" s="40">
+        <v>2</v>
+      </c>
+      <c r="I53" s="9"/>
+      <c r="J53" s="11"/>
+      <c r="K53" s="48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="41"/>
+      <c r="B54" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="13"/>
+      <c r="D54" s="40"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="20"/>
+      <c r="G54" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H54" s="40"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="11"/>
+      <c r="K54" s="48"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="41">
+        <v>43435</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C55" s="13"/>
+      <c r="D55" s="40">
+        <v>1</v>
+      </c>
+      <c r="E55" s="9"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H55" s="40"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="48">
+        <v>43452</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="41"/>
+      <c r="B56" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="13"/>
+      <c r="D56" s="40"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H56" s="40">
+        <v>1</v>
+      </c>
+      <c r="I56" s="9"/>
+      <c r="J56" s="11"/>
+      <c r="K56" s="48">
+        <v>43445</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="41"/>
+      <c r="B57" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C57" s="13"/>
+      <c r="D57" s="40"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="20"/>
+      <c r="G57" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H57" s="40">
+        <v>2</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="48" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="41"/>
+      <c r="B58" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C58" s="13"/>
+      <c r="D58" s="40"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H58" s="40"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="11"/>
+      <c r="K58" s="48"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="47" t="s">
+        <v>44</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H59" s="40"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="20"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="41">
+        <v>43466</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60" s="13"/>
+      <c r="D60" s="40"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H60" s="40">
+        <v>1</v>
+      </c>
+      <c r="I60" s="9"/>
+      <c r="J60" s="11"/>
+      <c r="K60" s="20"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="41"/>
+      <c r="B61" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="13"/>
+      <c r="D61" s="40"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H61" s="40">
+        <v>3</v>
+      </c>
+      <c r="I61" s="9"/>
+      <c r="J61" s="11"/>
+      <c r="K61" s="20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="41">
+        <v>43497</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="13"/>
+      <c r="D62" s="40">
+        <v>3</v>
+      </c>
+      <c r="E62" s="9"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H62" s="40"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="41"/>
+      <c r="B63" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C63" s="13"/>
+      <c r="D63" s="40"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H63" s="40">
+        <v>1</v>
+      </c>
+      <c r="I63" s="9"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="48">
+        <v>43517</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="41"/>
+      <c r="B64" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="13"/>
+      <c r="D64" s="40"/>
+      <c r="E64" s="9"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H64" s="40"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="41"/>
+      <c r="B65" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C65" s="13"/>
+      <c r="D65" s="40"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H65" s="40">
+        <v>2</v>
+      </c>
+      <c r="I65" s="9"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="20" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="41">
+        <v>43525</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C66" s="13"/>
+      <c r="D66" s="40"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="20"/>
+      <c r="G66" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H66" s="40">
+        <v>1</v>
+      </c>
+      <c r="I66" s="9"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="48">
+        <v>43531</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="41"/>
+      <c r="B67" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C67" s="13"/>
+      <c r="D67" s="40"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H67" s="40">
+        <v>3</v>
+      </c>
+      <c r="I67" s="9"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="48" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A68" s="41"/>
+      <c r="B68" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="13"/>
+      <c r="D68" s="40"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H68" s="40">
+        <v>1</v>
+      </c>
+      <c r="I68" s="9"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="48">
+        <v>43552</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A69" s="41">
+        <v>43556</v>
+      </c>
+      <c r="B69" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C69" s="13"/>
+      <c r="D69" s="40"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="20"/>
+      <c r="G69" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H69" s="40">
+        <v>1</v>
+      </c>
+      <c r="I69" s="9"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="48">
+        <v>43817</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A70" s="41"/>
+      <c r="B70" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="13"/>
+      <c r="D70" s="40"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="20"/>
+      <c r="G70" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H70" s="40">
+        <v>1</v>
+      </c>
+      <c r="I70" s="9"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="48">
+        <v>43557</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A71" s="41"/>
+      <c r="B71" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C71" s="13"/>
+      <c r="D71" s="40"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="20"/>
+      <c r="G71" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H71" s="40">
+        <v>1</v>
+      </c>
+      <c r="I71" s="9"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="48">
+        <v>43572</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A72" s="41"/>
+      <c r="B72" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C72" s="13"/>
+      <c r="D72" s="40"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="20"/>
+      <c r="G72" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H72" s="40">
+        <v>2</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A73" s="41">
+        <v>43586</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="13"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="20"/>
+      <c r="G73" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H73" s="40">
+        <v>1</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="48">
+        <v>43587</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A74" s="41"/>
+      <c r="B74" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" s="13"/>
+      <c r="D74" s="40">
+        <v>2</v>
+      </c>
+      <c r="E74" s="9"/>
+      <c r="F74" s="20"/>
+      <c r="G74" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H74" s="40"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="48" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A75" s="41"/>
+      <c r="B75" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C75" s="13"/>
+      <c r="D75" s="40"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="20"/>
+      <c r="G75" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H75" s="40">
+        <v>1</v>
+      </c>
+      <c r="I75" s="9"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="48">
+        <v>43594</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A76" s="41"/>
+      <c r="B76" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C76" s="13"/>
+      <c r="D76" s="40"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H76" s="40">
+        <v>1</v>
+      </c>
+      <c r="I76" s="9"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="48">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A77" s="41"/>
+      <c r="B77" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C77" s="13"/>
+      <c r="D77" s="40"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H77" s="40">
+        <v>2</v>
+      </c>
+      <c r="I77" s="9"/>
+      <c r="J77" s="11"/>
+      <c r="K77" s="48" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A78" s="41"/>
+      <c r="B78" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C78" s="13"/>
+      <c r="D78" s="40"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H78" s="40">
+        <v>1</v>
+      </c>
+      <c r="I78" s="9"/>
+      <c r="J78" s="11"/>
+      <c r="K78" s="48">
+        <v>43615</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A79" s="41">
+        <v>43617</v>
+      </c>
+      <c r="B79" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C79" s="13"/>
+      <c r="D79" s="40"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="20"/>
+      <c r="G79" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H79" s="40">
+        <v>1</v>
+      </c>
+      <c r="I79" s="9"/>
+      <c r="J79" s="11"/>
+      <c r="K79" s="48">
+        <v>43619</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A80" s="41"/>
+      <c r="B80" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C80" s="13"/>
+      <c r="D80" s="40"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="20"/>
+      <c r="G80" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H80" s="40">
+        <v>3</v>
+      </c>
+      <c r="I80" s="9"/>
+      <c r="J80" s="11"/>
+      <c r="K80" s="48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A81" s="41"/>
+      <c r="B81" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="20"/>
+      <c r="G81" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H81" s="40">
+        <v>1</v>
+      </c>
+      <c r="I81" s="9"/>
+      <c r="J81" s="11"/>
+      <c r="K81" s="48">
+        <v>43629</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A82" s="41"/>
+      <c r="B82" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C82" s="13"/>
+      <c r="D82" s="40"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="20"/>
+      <c r="G82" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H82" s="40">
+        <v>1</v>
+      </c>
+      <c r="I82" s="9"/>
+      <c r="J82" s="11"/>
+      <c r="K82" s="48">
+        <v>43633</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A83" s="41"/>
+      <c r="B83" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="40">
+        <v>7</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="20"/>
+      <c r="G83" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H83" s="40"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="11"/>
+      <c r="K83" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A84" s="41"/>
+      <c r="B84" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="13"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="20"/>
+      <c r="G84" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H84" s="40"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="11"/>
+      <c r="K84" s="48" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A85" s="41">
+        <v>43647</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="40">
+        <v>5</v>
+      </c>
+      <c r="E85" s="9"/>
+      <c r="F85" s="20"/>
+      <c r="G85" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H85" s="40"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="11"/>
+      <c r="K85" s="20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A86" s="41"/>
+      <c r="B86" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C86" s="13"/>
+      <c r="D86" s="40"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="20"/>
+      <c r="G86" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H86" s="40">
+        <v>1</v>
+      </c>
+      <c r="I86" s="9"/>
+      <c r="J86" s="11"/>
+      <c r="K86" s="48">
+        <v>43663</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A87" s="41"/>
+      <c r="B87" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C87" s="13"/>
+      <c r="D87" s="40"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="20"/>
+      <c r="G87" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H87" s="40">
+        <v>1</v>
+      </c>
+      <c r="I87" s="9"/>
+      <c r="J87" s="11"/>
+      <c r="K87" s="48">
+        <v>43668</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A88" s="41">
+        <v>43678</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C88" s="13"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="20"/>
+      <c r="G88" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H88" s="40">
+        <v>1</v>
+      </c>
+      <c r="I88" s="9"/>
+      <c r="J88" s="11"/>
+      <c r="K88" s="48">
+        <v>43678</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A89" s="41"/>
+      <c r="B89" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C89" s="13"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="20"/>
+      <c r="G89" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H89" s="40">
+        <v>1</v>
+      </c>
+      <c r="I89" s="9"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="48">
+        <v>43685</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A90" s="41"/>
+      <c r="B90" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" s="13"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="20"/>
+      <c r="G90" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H90" s="40">
+        <v>1</v>
+      </c>
+      <c r="I90" s="9"/>
+      <c r="J90" s="11"/>
+      <c r="K90" s="48">
+        <v>43700</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A91" s="41"/>
+      <c r="B91" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C91" s="13"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="20"/>
+      <c r="G91" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H91" s="40">
+        <v>2</v>
+      </c>
+      <c r="I91" s="9"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="48" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A92" s="41">
+        <v>43709</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="13"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="20"/>
+      <c r="G92" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H92" s="40">
+        <v>1</v>
+      </c>
+      <c r="I92" s="9"/>
+      <c r="J92" s="11"/>
+      <c r="K92" s="48">
+        <v>43725</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A93" s="41"/>
+      <c r="B93" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C93" s="13"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="20"/>
+      <c r="G93" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H93" s="40">
+        <v>2</v>
+      </c>
+      <c r="I93" s="9"/>
+      <c r="J93" s="11"/>
+      <c r="K93" s="48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A94" s="41"/>
+      <c r="B94" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C94" s="13"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="20"/>
+      <c r="G94" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H94" s="40">
+        <v>2</v>
+      </c>
+      <c r="I94" s="9"/>
+      <c r="J94" s="11"/>
+      <c r="K94" s="48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A95" s="41">
+        <v>43739</v>
+      </c>
+      <c r="B95" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="13"/>
+      <c r="D95" s="40">
+        <v>1</v>
+      </c>
+      <c r="E95" s="9"/>
+      <c r="F95" s="20"/>
+      <c r="G95" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H95" s="40"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="11"/>
+      <c r="K95" s="48">
+        <v>43749</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A96" s="41"/>
+      <c r="B96" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96" s="13"/>
+      <c r="D96" s="40"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="20"/>
+      <c r="G96" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H96" s="40">
+        <v>2</v>
+      </c>
+      <c r="I96" s="9"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A97" s="41"/>
+      <c r="B97" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C97" s="13"/>
+      <c r="D97" s="40"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="20"/>
+      <c r="G97" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H97" s="40">
+        <v>1</v>
+      </c>
+      <c r="I97" s="9"/>
+      <c r="J97" s="11"/>
+      <c r="K97" s="48">
+        <v>43755</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A98" s="41"/>
+      <c r="B98" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C98" s="13"/>
+      <c r="D98" s="40"/>
+      <c r="E98" s="9"/>
+      <c r="F98" s="20"/>
+      <c r="G98" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H98" s="40">
+        <v>1</v>
+      </c>
+      <c r="I98" s="9"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="48">
+        <v>43762</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A99" s="41"/>
+      <c r="B99" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C99" s="13"/>
+      <c r="D99" s="40"/>
+      <c r="E99" s="9"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H99" s="40">
+        <v>1</v>
+      </c>
+      <c r="I99" s="9"/>
+      <c r="J99" s="11"/>
+      <c r="K99" s="48">
+        <v>43769</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A100" s="41">
+        <v>43770</v>
+      </c>
+      <c r="B100" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="C100" s="13"/>
+      <c r="D100" s="40">
+        <v>2</v>
+      </c>
+      <c r="E100" s="9"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H100" s="40"/>
+      <c r="I100" s="9"/>
+      <c r="J100" s="11"/>
+      <c r="K100" s="20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A101" s="41"/>
+      <c r="B101" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C101" s="13"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="9"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H101" s="40">
+        <v>1</v>
+      </c>
+      <c r="I101" s="9"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="48">
+        <v>43777</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A102" s="41"/>
+      <c r="B102" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" s="13"/>
+      <c r="D102" s="40"/>
+      <c r="E102" s="9"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H102" s="40">
+        <v>1</v>
+      </c>
+      <c r="I102" s="9"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="48">
+        <v>43790</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A103" s="41">
+        <v>43800</v>
+      </c>
+      <c r="B103" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C103" s="13"/>
+      <c r="D103" s="40"/>
+      <c r="E103" s="9"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H103" s="40"/>
+      <c r="I103" s="9"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="48">
+        <v>43817</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A104" s="41"/>
+      <c r="B104" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104" s="13"/>
+      <c r="D104" s="40"/>
+      <c r="E104" s="9"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H104" s="40">
+        <v>2</v>
+      </c>
+      <c r="I104" s="9"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="48" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A105" s="41"/>
+      <c r="B105" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C105" s="13"/>
+      <c r="D105" s="40"/>
+      <c r="E105" s="9"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H105" s="40">
+        <v>2</v>
+      </c>
+      <c r="I105" s="9"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="48" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A106" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B106" s="20"/>
+      <c r="C106" s="13"/>
+      <c r="D106" s="40"/>
+      <c r="E106" s="9"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H106" s="40"/>
+      <c r="I106" s="9"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="20"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A107" s="41">
+        <v>43831</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="40"/>
+      <c r="E107" s="9"/>
+      <c r="F107" s="20"/>
+      <c r="G107" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H107" s="40">
+        <v>1</v>
+      </c>
+      <c r="I107" s="9"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="20"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A108" s="41"/>
+      <c r="B108" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="40"/>
+      <c r="E108" s="9"/>
+      <c r="F108" s="20"/>
+      <c r="G108" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H108" s="40">
+        <v>3</v>
+      </c>
+      <c r="I108" s="9"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A109" s="41">
+        <v>43891</v>
+      </c>
+      <c r="B109" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="40"/>
+      <c r="E109" s="9"/>
+      <c r="F109" s="20"/>
+      <c r="G109" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H109" s="40">
+        <v>2</v>
+      </c>
+      <c r="I109" s="9"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A110" s="41"/>
+      <c r="B110" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C110" s="13"/>
+      <c r="D110" s="40"/>
+      <c r="E110" s="9"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H110" s="40"/>
+      <c r="I110" s="9"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A111" s="41"/>
+      <c r="B111" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" s="13"/>
+      <c r="D111" s="40"/>
+      <c r="E111" s="9"/>
+      <c r="F111" s="20"/>
+      <c r="G111" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H111" s="40"/>
+      <c r="I111" s="9"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A112" s="41">
+        <v>43922</v>
+      </c>
+      <c r="B112" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C112" s="13"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="9"/>
+      <c r="F112" s="20"/>
+      <c r="G112" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H112" s="40">
+        <v>2</v>
+      </c>
+      <c r="I112" s="9"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A113" s="41"/>
+      <c r="B113" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C113" s="13"/>
+      <c r="D113" s="40">
+        <v>5</v>
+      </c>
+      <c r="E113" s="9"/>
+      <c r="F113" s="20"/>
+      <c r="G113" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H113" s="40"/>
+      <c r="I113" s="9"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A114" s="41">
+        <v>43952</v>
+      </c>
+      <c r="B114" s="20"/>
+      <c r="C114" s="13"/>
+      <c r="D114" s="40"/>
+      <c r="E114" s="9"/>
+      <c r="F114" s="20"/>
+      <c r="G114" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H114" s="40"/>
+      <c r="I114" s="9"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="20"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A115" s="41">
+        <v>43983</v>
+      </c>
+      <c r="B115" s="20"/>
+      <c r="C115" s="13"/>
+      <c r="D115" s="40"/>
+      <c r="E115" s="9"/>
+      <c r="F115" s="20"/>
+      <c r="G115" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H115" s="40"/>
+      <c r="I115" s="9"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="20"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A116" s="41">
+        <v>44013</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="40"/>
@@ -3550,8 +6533,12 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="41"/>
-      <c r="B117" s="20"/>
+      <c r="A117" s="41">
+        <v>44044</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C117" s="13"/>
       <c r="D117" s="40"/>
       <c r="E117" s="9"/>
@@ -3560,16 +6547,26 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H117" s="40"/>
+      <c r="H117" s="40">
+        <v>2</v>
+      </c>
       <c r="I117" s="9"/>
       <c r="J117" s="11"/>
-      <c r="K117" s="20"/>
+      <c r="K117" s="20" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="41"/>
-      <c r="B118" s="20"/>
+      <c r="A118" s="41">
+        <v>44075</v>
+      </c>
+      <c r="B118" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="C118" s="13"/>
-      <c r="D118" s="40"/>
+      <c r="D118" s="40">
+        <v>3</v>
+      </c>
       <c r="E118" s="9"/>
       <c r="F118" s="20"/>
       <c r="G118" s="13" t="str">
@@ -3582,7 +6579,9 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="41"/>
+      <c r="A119" s="41">
+        <v>44105</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="40"/>
@@ -3598,7 +6597,9 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="41"/>
+      <c r="A120" s="41">
+        <v>44136</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="40"/>
@@ -3614,8 +6615,12 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="41"/>
-      <c r="B121" s="20"/>
+      <c r="A121" s="41">
+        <v>44166</v>
+      </c>
+      <c r="B121" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C121" s="13"/>
       <c r="D121" s="40"/>
       <c r="E121" s="9"/>
@@ -3624,14 +6629,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H121" s="40"/>
+      <c r="H121" s="40">
+        <v>1</v>
+      </c>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
-      <c r="K121" s="20"/>
+      <c r="K121" s="48">
+        <v>44173</v>
+      </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="41"/>
-      <c r="B122" s="20"/>
+      <c r="B122" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C122" s="13"/>
       <c r="D122" s="40"/>
       <c r="E122" s="9"/>
@@ -3640,14 +6651,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H122" s="40"/>
+      <c r="H122" s="40">
+        <v>2</v>
+      </c>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="20"/>
+      <c r="K122" s="48" t="s">
+        <v>128</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="41"/>
-      <c r="B123" s="20"/>
+      <c r="B123" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C123" s="13"/>
       <c r="D123" s="40"/>
       <c r="E123" s="9"/>
@@ -3656,13 +6673,19 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H123" s="40"/>
+      <c r="H123" s="40">
+        <v>3</v>
+      </c>
       <c r="I123" s="9"/>
       <c r="J123" s="11"/>
-      <c r="K123" s="20"/>
+      <c r="K123" s="48" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="41"/>
+      <c r="A124" s="47" t="s">
+        <v>46</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="40"/>
@@ -3678,8 +6701,12 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="41"/>
-      <c r="B125" s="20"/>
+      <c r="A125" s="41">
+        <v>44197</v>
+      </c>
+      <c r="B125" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C125" s="13"/>
       <c r="D125" s="40"/>
       <c r="E125" s="9"/>
@@ -3688,14 +6715,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H125" s="40"/>
+      <c r="H125" s="40">
+        <v>2</v>
+      </c>
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
-      <c r="K125" s="20"/>
+      <c r="K125" s="20" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="41"/>
-      <c r="B126" s="20"/>
+      <c r="A126" s="41">
+        <v>44228</v>
+      </c>
+      <c r="B126" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C126" s="13"/>
       <c r="D126" s="40"/>
       <c r="E126" s="9"/>
@@ -3707,11 +6742,15 @@
       <c r="H126" s="40"/>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
-      <c r="K126" s="20"/>
+      <c r="K126" s="48">
+        <v>44249</v>
+      </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="41"/>
-      <c r="B127" s="20"/>
+      <c r="B127" s="20" t="s">
+        <v>53</v>
+      </c>
       <c r="C127" s="13"/>
       <c r="D127" s="40"/>
       <c r="E127" s="9"/>
@@ -3723,11 +6762,15 @@
       <c r="H127" s="40"/>
       <c r="I127" s="9"/>
       <c r="J127" s="11"/>
-      <c r="K127" s="20"/>
+      <c r="K127" s="48">
+        <v>44215</v>
+      </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="41"/>
-      <c r="B128" s="20"/>
+      <c r="B128" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C128" s="13"/>
       <c r="D128" s="40"/>
       <c r="E128" s="9"/>
@@ -3736,14 +6779,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H128" s="40"/>
+      <c r="H128" s="40">
+        <v>2</v>
+      </c>
       <c r="I128" s="9"/>
       <c r="J128" s="11"/>
-      <c r="K128" s="20"/>
+      <c r="K128" s="48" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="41"/>
-      <c r="B129" s="20"/>
+      <c r="B129" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="C129" s="13"/>
       <c r="D129" s="40"/>
       <c r="E129" s="9"/>
@@ -3752,14 +6801,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H129" s="40"/>
+      <c r="H129" s="40">
+        <v>3</v>
+      </c>
       <c r="I129" s="9"/>
       <c r="J129" s="11"/>
-      <c r="K129" s="20"/>
+      <c r="K129" s="48" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="41"/>
-      <c r="B130" s="20"/>
+      <c r="B130" s="20" t="s">
+        <v>57</v>
+      </c>
       <c r="C130" s="13"/>
       <c r="D130" s="40"/>
       <c r="E130" s="9"/>
@@ -3768,14 +6823,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H130" s="40"/>
+      <c r="H130" s="40">
+        <v>1</v>
+      </c>
       <c r="I130" s="9"/>
       <c r="J130" s="11"/>
-      <c r="K130" s="20"/>
+      <c r="K130" s="48">
+        <v>44229</v>
+      </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="41"/>
-      <c r="B131" s="20"/>
+      <c r="A131" s="41">
+        <v>44378</v>
+      </c>
+      <c r="B131" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C131" s="13"/>
       <c r="D131" s="40"/>
       <c r="E131" s="9"/>
@@ -3784,14 +6847,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H131" s="40"/>
+      <c r="H131" s="40">
+        <v>2</v>
+      </c>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
-      <c r="K131" s="20"/>
+      <c r="K131" s="20" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="41"/>
-      <c r="B132" s="20"/>
+      <c r="B132" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C132" s="13"/>
       <c r="D132" s="40"/>
       <c r="E132" s="9"/>
@@ -3800,14 +6869,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H132" s="40"/>
+      <c r="H132" s="40">
+        <v>2</v>
+      </c>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
-      <c r="K132" s="20"/>
+      <c r="K132" s="20" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="41"/>
-      <c r="B133" s="20"/>
+      <c r="B133" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="C133" s="13"/>
       <c r="D133" s="40"/>
       <c r="E133" s="9"/>
@@ -3816,26 +6891,1342 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H133" s="40"/>
+      <c r="H133" s="40">
+        <v>2</v>
+      </c>
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
-      <c r="K133" s="20"/>
+      <c r="K133" s="20" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="42"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="43"/>
-      <c r="D134" s="44"/>
+      <c r="A134" s="41">
+        <v>44440</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C134" s="13"/>
+      <c r="D134" s="40">
+        <v>3</v>
+      </c>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="43" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H134" s="44"/>
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H134" s="40"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="41">
+        <v>44470</v>
+      </c>
+      <c r="B135" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C135" s="13"/>
+      <c r="D135" s="40"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="40">
+        <v>1</v>
+      </c>
+      <c r="I135" s="9"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="48">
+        <v>44489</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A136" s="41"/>
+      <c r="B136" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="C136" s="13"/>
+      <c r="D136" s="40"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="40">
+        <v>5</v>
+      </c>
+      <c r="I136" s="9"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="41"/>
+      <c r="B137" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C137" s="13"/>
+      <c r="D137" s="40"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="40"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="47" t="s">
+        <v>52</v>
+      </c>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="40"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="40"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="41">
+        <v>44562</v>
+      </c>
+      <c r="B139" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C139" s="13"/>
+      <c r="D139" s="40"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="20"/>
+      <c r="G139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="40">
+        <v>2</v>
+      </c>
+      <c r="I139" s="9"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A140" s="41"/>
+      <c r="B140" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C140" s="13"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="9"/>
+      <c r="F140" s="20"/>
+      <c r="G140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H140" s="40">
+        <v>1</v>
+      </c>
+      <c r="I140" s="9"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="48">
+        <v>44589</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A141" s="41"/>
+      <c r="B141" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C141" s="13"/>
+      <c r="D141" s="40"/>
+      <c r="E141" s="9"/>
+      <c r="F141" s="20"/>
+      <c r="G141" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H141" s="40">
+        <v>2</v>
+      </c>
+      <c r="I141" s="9"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="48" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A142" s="41">
+        <v>44593</v>
+      </c>
+      <c r="B142" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C142" s="13"/>
+      <c r="D142" s="40"/>
+      <c r="E142" s="9"/>
+      <c r="F142" s="20"/>
+      <c r="G142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H142" s="40">
+        <v>2</v>
+      </c>
+      <c r="I142" s="9"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="20" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A143" s="41"/>
+      <c r="B143" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C143" s="13"/>
+      <c r="D143" s="40"/>
+      <c r="E143" s="9"/>
+      <c r="F143" s="20"/>
+      <c r="G143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H143" s="40">
+        <v>2</v>
+      </c>
+      <c r="I143" s="9"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A144" s="41"/>
+      <c r="B144" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C144" s="13"/>
+      <c r="D144" s="40"/>
+      <c r="E144" s="9"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H144" s="40">
+        <v>3</v>
+      </c>
+      <c r="I144" s="9"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="20" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A145" s="41"/>
+      <c r="B145" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C145" s="13"/>
+      <c r="D145" s="40"/>
+      <c r="E145" s="9"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H145" s="40">
+        <v>1</v>
+      </c>
+      <c r="I145" s="9"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="48">
+        <v>44638</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A146" s="41"/>
+      <c r="B146" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C146" s="13"/>
+      <c r="D146" s="40"/>
+      <c r="E146" s="9"/>
+      <c r="F146" s="20"/>
+      <c r="G146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H146" s="40">
+        <v>2</v>
+      </c>
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="48" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A147" s="41">
+        <v>44682</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C147" s="13"/>
+      <c r="D147" s="40"/>
+      <c r="E147" s="9"/>
+      <c r="F147" s="20"/>
+      <c r="G147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H147" s="40">
+        <v>1</v>
+      </c>
+      <c r="I147" s="9"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="48">
+        <v>44704</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A148" s="41">
+        <v>44713</v>
+      </c>
+      <c r="B148" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C148" s="13"/>
+      <c r="D148" s="40"/>
+      <c r="E148" s="9"/>
+      <c r="F148" s="20"/>
+      <c r="G148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H148" s="40"/>
+      <c r="I148" s="9"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="48" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A149" s="41"/>
+      <c r="B149" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C149" s="13"/>
+      <c r="D149" s="40"/>
+      <c r="E149" s="9"/>
+      <c r="F149" s="20"/>
+      <c r="G149" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H149" s="40">
+        <v>2</v>
+      </c>
+      <c r="I149" s="9"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A150" s="41"/>
+      <c r="B150" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C150" s="13"/>
+      <c r="D150" s="40"/>
+      <c r="E150" s="9"/>
+      <c r="F150" s="20"/>
+      <c r="G150" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H150" s="40">
+        <v>1</v>
+      </c>
+      <c r="I150" s="9"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="48">
+        <v>44753</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A151" s="41"/>
+      <c r="B151" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C151" s="13"/>
+      <c r="D151" s="40"/>
+      <c r="E151" s="9"/>
+      <c r="F151" s="20"/>
+      <c r="G151" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H151" s="40">
+        <v>1</v>
+      </c>
+      <c r="I151" s="9"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="48">
+        <v>44764</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A152" s="41"/>
+      <c r="B152" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C152" s="13"/>
+      <c r="D152" s="40"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="20"/>
+      <c r="G152" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H152" s="40">
+        <v>2</v>
+      </c>
+      <c r="I152" s="9"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A153" s="41"/>
+      <c r="B153" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C153" s="13"/>
+      <c r="D153" s="40"/>
+      <c r="E153" s="9"/>
+      <c r="F153" s="20"/>
+      <c r="G153" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H153" s="40">
+        <v>2</v>
+      </c>
+      <c r="I153" s="9"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A154" s="41">
+        <v>44805</v>
+      </c>
+      <c r="B154" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C154" s="13"/>
+      <c r="D154" s="40"/>
+      <c r="E154" s="9"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H154" s="40">
+        <v>1</v>
+      </c>
+      <c r="I154" s="9"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="48">
+        <v>44811</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A155" s="41"/>
+      <c r="B155" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C155" s="13"/>
+      <c r="D155" s="40"/>
+      <c r="E155" s="9"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H155" s="40">
+        <v>1</v>
+      </c>
+      <c r="I155" s="9"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="48">
+        <v>44805</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A156" s="41">
+        <v>44835</v>
+      </c>
+      <c r="B156" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C156" s="13"/>
+      <c r="D156" s="40"/>
+      <c r="E156" s="9"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H156" s="40">
+        <v>2</v>
+      </c>
+      <c r="I156" s="9"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A157" s="41"/>
+      <c r="B157" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C157" s="13"/>
+      <c r="D157" s="40"/>
+      <c r="E157" s="9"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H157" s="40">
+        <v>1</v>
+      </c>
+      <c r="I157" s="9"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="48">
+        <v>44841</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A158" s="41"/>
+      <c r="B158" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C158" s="13"/>
+      <c r="D158" s="40"/>
+      <c r="E158" s="9"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H158" s="40"/>
+      <c r="I158" s="9"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="48">
+        <v>44845</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A159" s="41"/>
+      <c r="B159" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C159" s="13"/>
+      <c r="D159" s="40"/>
+      <c r="E159" s="9"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H159" s="40">
+        <v>1</v>
+      </c>
+      <c r="I159" s="9"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="48">
+        <v>44854</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A160" s="41"/>
+      <c r="B160" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C160" s="13"/>
+      <c r="D160" s="40"/>
+      <c r="E160" s="9"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H160" s="40">
+        <v>2</v>
+      </c>
+      <c r="I160" s="9"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A161" s="41">
+        <v>44866</v>
+      </c>
+      <c r="B161" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C161" s="13"/>
+      <c r="D161" s="40"/>
+      <c r="E161" s="9"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H161" s="40"/>
+      <c r="I161" s="9"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="48">
+        <v>44893</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A162" s="41"/>
+      <c r="B162" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C162" s="13"/>
+      <c r="D162" s="40"/>
+      <c r="E162" s="9"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H162" s="40">
+        <v>1</v>
+      </c>
+      <c r="I162" s="9"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="48">
+        <v>44876</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A163" s="41"/>
+      <c r="B163" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="C163" s="13"/>
+      <c r="D163" s="40"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H163" s="40">
+        <v>1</v>
+      </c>
+      <c r="I163" s="9"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="48">
+        <v>44887</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A164" s="41">
+        <v>44896</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C164" s="13"/>
+      <c r="D164" s="40"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H164" s="40">
+        <v>2</v>
+      </c>
+      <c r="I164" s="9"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A165" s="41"/>
+      <c r="B165" s="20"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="40"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H165" s="40"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="20"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A166" s="41"/>
+      <c r="B166" s="20"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="40"/>
+      <c r="E166" s="9"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H166" s="40"/>
+      <c r="I166" s="9"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="20"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A167" s="41"/>
+      <c r="B167" s="20"/>
+      <c r="C167" s="13"/>
+      <c r="D167" s="40"/>
+      <c r="E167" s="9"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H167" s="40"/>
+      <c r="I167" s="9"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="20"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A168" s="41"/>
+      <c r="B168" s="20"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="40"/>
+      <c r="E168" s="9"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H168" s="40"/>
+      <c r="I168" s="9"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="20"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A169" s="41"/>
+      <c r="B169" s="20"/>
+      <c r="C169" s="13"/>
+      <c r="D169" s="40"/>
+      <c r="E169" s="9"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H169" s="40"/>
+      <c r="I169" s="9"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="20"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A170" s="41"/>
+      <c r="B170" s="20"/>
+      <c r="C170" s="13"/>
+      <c r="D170" s="40"/>
+      <c r="E170" s="9"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H170" s="40"/>
+      <c r="I170" s="9"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="20"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A171" s="41"/>
+      <c r="B171" s="20"/>
+      <c r="C171" s="13"/>
+      <c r="D171" s="40"/>
+      <c r="E171" s="9"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H171" s="40"/>
+      <c r="I171" s="9"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="20"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A172" s="41"/>
+      <c r="B172" s="20"/>
+      <c r="C172" s="13"/>
+      <c r="D172" s="40"/>
+      <c r="E172" s="9"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H172" s="40"/>
+      <c r="I172" s="9"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="20"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A173" s="41"/>
+      <c r="B173" s="20"/>
+      <c r="C173" s="13"/>
+      <c r="D173" s="40"/>
+      <c r="E173" s="9"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H173" s="40"/>
+      <c r="I173" s="9"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="20"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A174" s="41"/>
+      <c r="B174" s="20"/>
+      <c r="C174" s="13"/>
+      <c r="D174" s="40"/>
+      <c r="E174" s="9"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H174" s="40"/>
+      <c r="I174" s="9"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="20"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A175" s="41"/>
+      <c r="B175" s="20"/>
+      <c r="C175" s="13"/>
+      <c r="D175" s="40"/>
+      <c r="E175" s="9"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H175" s="40"/>
+      <c r="I175" s="9"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="20"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A176" s="41"/>
+      <c r="B176" s="20"/>
+      <c r="C176" s="13"/>
+      <c r="D176" s="40"/>
+      <c r="E176" s="9"/>
+      <c r="F176" s="20"/>
+      <c r="G176" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H176" s="40"/>
+      <c r="I176" s="9"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="20"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A177" s="41"/>
+      <c r="B177" s="20"/>
+      <c r="C177" s="13"/>
+      <c r="D177" s="40"/>
+      <c r="E177" s="9"/>
+      <c r="F177" s="20"/>
+      <c r="G177" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H177" s="40"/>
+      <c r="I177" s="9"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="20"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A178" s="41"/>
+      <c r="B178" s="20"/>
+      <c r="C178" s="13"/>
+      <c r="D178" s="40"/>
+      <c r="E178" s="9"/>
+      <c r="F178" s="20"/>
+      <c r="G178" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H178" s="40"/>
+      <c r="I178" s="9"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="20"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A179" s="41"/>
+      <c r="B179" s="20"/>
+      <c r="C179" s="13"/>
+      <c r="D179" s="40"/>
+      <c r="E179" s="9"/>
+      <c r="F179" s="20"/>
+      <c r="G179" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H179" s="40"/>
+      <c r="I179" s="9"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="20"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A180" s="41"/>
+      <c r="B180" s="20"/>
+      <c r="C180" s="13"/>
+      <c r="D180" s="40"/>
+      <c r="E180" s="9"/>
+      <c r="F180" s="20"/>
+      <c r="G180" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H180" s="40"/>
+      <c r="I180" s="9"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="20"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A181" s="41"/>
+      <c r="B181" s="20"/>
+      <c r="C181" s="13"/>
+      <c r="D181" s="40"/>
+      <c r="E181" s="9"/>
+      <c r="F181" s="20"/>
+      <c r="G181" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H181" s="40"/>
+      <c r="I181" s="9"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="20"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A182" s="41"/>
+      <c r="B182" s="20"/>
+      <c r="C182" s="13"/>
+      <c r="D182" s="40"/>
+      <c r="E182" s="9"/>
+      <c r="F182" s="20"/>
+      <c r="G182" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H182" s="40"/>
+      <c r="I182" s="9"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="20"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A183" s="41"/>
+      <c r="B183" s="20"/>
+      <c r="C183" s="13"/>
+      <c r="D183" s="40"/>
+      <c r="E183" s="9"/>
+      <c r="F183" s="20"/>
+      <c r="G183" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H183" s="40"/>
+      <c r="I183" s="9"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="20"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A184" s="41"/>
+      <c r="B184" s="20"/>
+      <c r="C184" s="13"/>
+      <c r="D184" s="40"/>
+      <c r="E184" s="9"/>
+      <c r="F184" s="20"/>
+      <c r="G184" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H184" s="40"/>
+      <c r="I184" s="9"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="20"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A185" s="41"/>
+      <c r="B185" s="20"/>
+      <c r="C185" s="13"/>
+      <c r="D185" s="40"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="20"/>
+      <c r="G185" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H185" s="40"/>
+      <c r="I185" s="9"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="20"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A186" s="41"/>
+      <c r="B186" s="20"/>
+      <c r="C186" s="13"/>
+      <c r="D186" s="40"/>
+      <c r="E186" s="9"/>
+      <c r="F186" s="20"/>
+      <c r="G186" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H186" s="40"/>
+      <c r="I186" s="9"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="20"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A187" s="41"/>
+      <c r="B187" s="20"/>
+      <c r="C187" s="13"/>
+      <c r="D187" s="40"/>
+      <c r="E187" s="9"/>
+      <c r="F187" s="20"/>
+      <c r="G187" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H187" s="40"/>
+      <c r="I187" s="9"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="20"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A188" s="41"/>
+      <c r="B188" s="20"/>
+      <c r="C188" s="13"/>
+      <c r="D188" s="40"/>
+      <c r="E188" s="9"/>
+      <c r="F188" s="20"/>
+      <c r="G188" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H188" s="40"/>
+      <c r="I188" s="9"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="20"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A189" s="41"/>
+      <c r="B189" s="20"/>
+      <c r="C189" s="13"/>
+      <c r="D189" s="40"/>
+      <c r="E189" s="9"/>
+      <c r="F189" s="20"/>
+      <c r="G189" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H189" s="40"/>
+      <c r="I189" s="9"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="20"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A190" s="41"/>
+      <c r="B190" s="20"/>
+      <c r="C190" s="13"/>
+      <c r="D190" s="40"/>
+      <c r="E190" s="9"/>
+      <c r="F190" s="20"/>
+      <c r="G190" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H190" s="40"/>
+      <c r="I190" s="9"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="20"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A191" s="41"/>
+      <c r="B191" s="20"/>
+      <c r="C191" s="13"/>
+      <c r="D191" s="40"/>
+      <c r="E191" s="9"/>
+      <c r="F191" s="20"/>
+      <c r="G191" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H191" s="40"/>
+      <c r="I191" s="9"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="20"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A192" s="41"/>
+      <c r="B192" s="20"/>
+      <c r="C192" s="13"/>
+      <c r="D192" s="40"/>
+      <c r="E192" s="9"/>
+      <c r="F192" s="20"/>
+      <c r="G192" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H192" s="40"/>
+      <c r="I192" s="9"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="20"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A193" s="41"/>
+      <c r="B193" s="20"/>
+      <c r="C193" s="13"/>
+      <c r="D193" s="40"/>
+      <c r="E193" s="9"/>
+      <c r="F193" s="20"/>
+      <c r="G193" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H193" s="40"/>
+      <c r="I193" s="9"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="20"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A194" s="41"/>
+      <c r="B194" s="20"/>
+      <c r="C194" s="13"/>
+      <c r="D194" s="40"/>
+      <c r="E194" s="9"/>
+      <c r="F194" s="20"/>
+      <c r="G194" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H194" s="40"/>
+      <c r="I194" s="9"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="20"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A195" s="41"/>
+      <c r="B195" s="20"/>
+      <c r="C195" s="13"/>
+      <c r="D195" s="40"/>
+      <c r="E195" s="9"/>
+      <c r="F195" s="20"/>
+      <c r="G195" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H195" s="40"/>
+      <c r="I195" s="9"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="20"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A196" s="41"/>
+      <c r="B196" s="20"/>
+      <c r="C196" s="13"/>
+      <c r="D196" s="40"/>
+      <c r="E196" s="9"/>
+      <c r="F196" s="20"/>
+      <c r="G196" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H196" s="40"/>
+      <c r="I196" s="9"/>
+      <c r="J196" s="11"/>
+      <c r="K196" s="20"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A197" s="41"/>
+      <c r="B197" s="20"/>
+      <c r="C197" s="13"/>
+      <c r="D197" s="40"/>
+      <c r="E197" s="9"/>
+      <c r="F197" s="20"/>
+      <c r="G197" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H197" s="40"/>
+      <c r="I197" s="9"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="20"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A198" s="41"/>
+      <c r="B198" s="20"/>
+      <c r="C198" s="13"/>
+      <c r="D198" s="40"/>
+      <c r="E198" s="9"/>
+      <c r="F198" s="20"/>
+      <c r="G198" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H198" s="40"/>
+      <c r="I198" s="9"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="20"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A199" s="41"/>
+      <c r="B199" s="20"/>
+      <c r="C199" s="13"/>
+      <c r="D199" s="40"/>
+      <c r="E199" s="9"/>
+      <c r="F199" s="20"/>
+      <c r="G199" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H199" s="40"/>
+      <c r="I199" s="9"/>
+      <c r="J199" s="11"/>
+      <c r="K199" s="20"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A200" s="41"/>
+      <c r="B200" s="20"/>
+      <c r="C200" s="13"/>
+      <c r="D200" s="40"/>
+      <c r="E200" s="9"/>
+      <c r="F200" s="20"/>
+      <c r="G200" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H200" s="40"/>
+      <c r="I200" s="9"/>
+      <c r="J200" s="11"/>
+      <c r="K200" s="20"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A201" s="41"/>
+      <c r="B201" s="20"/>
+      <c r="C201" s="13"/>
+      <c r="D201" s="40"/>
+      <c r="E201" s="9"/>
+      <c r="F201" s="20"/>
+      <c r="G201" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H201" s="40"/>
+      <c r="I201" s="9"/>
+      <c r="J201" s="11"/>
+      <c r="K201" s="20"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A202" s="41"/>
+      <c r="B202" s="20"/>
+      <c r="C202" s="13"/>
+      <c r="D202" s="40"/>
+      <c r="E202" s="9"/>
+      <c r="F202" s="20"/>
+      <c r="G202" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H202" s="40"/>
+      <c r="I202" s="9"/>
+      <c r="J202" s="11"/>
+      <c r="K202" s="20"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A203" s="41"/>
+      <c r="B203" s="20"/>
+      <c r="C203" s="13"/>
+      <c r="D203" s="40"/>
+      <c r="E203" s="9"/>
+      <c r="F203" s="20"/>
+      <c r="G203" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H203" s="40"/>
+      <c r="I203" s="9"/>
+      <c r="J203" s="11"/>
+      <c r="K203" s="20"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A204" s="42"/>
+      <c r="B204" s="15"/>
+      <c r="C204" s="43"/>
+      <c r="D204" s="44"/>
+      <c r="E204" s="9"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="43" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H204" s="44"/>
+      <c r="I204" s="9"/>
+      <c r="J204" s="12"/>
+      <c r="K204" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -3877,12 +8268,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3900,17 +8291,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
-      <c r="G1" s="57"/>
-      <c r="J1" s="58" t="s">
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="J1" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -3942,23 +8333,33 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="A3" s="11">
+        <v>53.343000000000004</v>
+      </c>
+      <c r="B3" s="11">
+        <v>195.75</v>
+      </c>
+      <c r="D3" s="11">
+        <v>1</v>
+      </c>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="11">
+        <v>46</v>
+      </c>
       <c r="G3" s="46">
         <f>SUM(D3,E4,F4)</f>
-        <v>0</v>
-      </c>
-      <c r="J3" s="35"/>
+        <v>1.0960000000000001</v>
+      </c>
+      <c r="J3" s="35">
+        <v>26</v>
+      </c>
       <c r="K3" s="36">
         <f>J4-1</f>
-        <v>-1</v>
-      </c>
-      <c r="L3" s="46" t="str">
+        <v>25</v>
+      </c>
+      <c r="L3" s="46">
         <f>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</f>
-        <v>---</v>
+        <v>0.20799999999999974</v>
       </c>
     </row>
     <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
@@ -3968,12 +8369,12 @@
       </c>
       <c r="F4" s="1">
         <f>IF(F3=0,0,IF(ISBLANK(F3),"",VLOOKUP(F3,C7:D66,2)))</f>
-        <v>0</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
@@ -3992,12 +8393,12 @@
       <c r="F6" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="38">
